--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_16_34.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_16_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3006359.718886361</v>
+        <v>3004107.639175153</v>
       </c>
     </row>
     <row r="7">
@@ -662,13 +662,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>83.56741318567356</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.152727013335143</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -820,13 +820,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -835,7 +835,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>10.93787135974289</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>13.02719212039631</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -902,16 +902,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>16.61609021059913</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>201.6622187863186</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>99.84759100840618</v>
       </c>
       <c r="V7" t="n">
-        <v>157.7822070347172</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>117.483863558099</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>129.5398680316074</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1291,25 +1291,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>120.6353666620236</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,19 +1342,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>69.25160695998082</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1537,16 +1537,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>21.90286287505422</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>28.75188085812005</v>
+        <v>109.0404882242259</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2093,10 +2093,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>125.8152577453149</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>126.9927435506632</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>1.79977260571614</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2710,22 +2710,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>206.5358970628699</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>7.61374123523283</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>214.0647808588581</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>216.5793400412173</v>
       </c>
     </row>
     <row r="35">
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3430,19 +3430,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>140.7158229532351</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3661,22 +3661,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3895,16 +3895,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>46.13809394730835</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>240.06330988836</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>1274.53911114974</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>905.5765942093283</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>905.5765942093283</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>905.5765942093283</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
@@ -4325,7 +4325,7 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912088</v>
@@ -4352,28 +4352,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3072.075344883006</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2741.012457539436</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2741.012457539436</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X2" t="n">
-        <v>2741.012457539436</v>
+        <v>2051.278283189673</v>
       </c>
       <c r="Y2" t="n">
-        <v>2731.767278738087</v>
+        <v>1661.138951213862</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>936.573581468607</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064745</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080125</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986299</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>994.2880032601528</v>
+        <v>560.4166776763448</v>
       </c>
       <c r="C4" t="n">
-        <v>825.3518203322459</v>
+        <v>391.4804947484379</v>
       </c>
       <c r="D4" t="n">
-        <v>675.2351809199101</v>
+        <v>391.4804947484379</v>
       </c>
       <c r="E4" t="n">
-        <v>527.322087337517</v>
+        <v>391.4804947484379</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396066</v>
+        <v>391.4804947484379</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>223.7776581231568</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>77.56047134101462</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4513,25 +4513,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U4" t="n">
-        <v>1927.294548088493</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V4" t="n">
-        <v>1914.135768168901</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W4" t="n">
-        <v>1624.71859813194</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="X4" t="n">
-        <v>1396.729047233923</v>
+        <v>742.0651425065845</v>
       </c>
       <c r="Y4" t="n">
-        <v>1175.936468090393</v>
+        <v>742.0651425065845</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>1274.539111149739</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>905.5765942093278</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>547.3108956025774</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4568,7 +4568,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4592,25 +4592,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>3325.60582160917</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>3325.60582160917</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X5" t="n">
-        <v>3121.906610713899</v>
+        <v>2051.278283189673</v>
       </c>
       <c r="Y5" t="n">
-        <v>2731.767278738087</v>
+        <v>1661.138951213861</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
         <v>66.5121164321834</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>848.0708164780106</v>
+        <v>551.0642295677644</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501037</v>
+        <v>382.1280466398575</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>382.1280466398575</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F7" t="n">
         <v>234.2149530574644</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1323.155438708629</v>
       </c>
       <c r="V7" t="n">
-        <v>1767.918581386758</v>
+        <v>1068.470950502742</v>
       </c>
       <c r="W7" t="n">
-        <v>1478.501411349798</v>
+        <v>779.0537804657818</v>
       </c>
       <c r="X7" t="n">
-        <v>1250.51186045178</v>
+        <v>551.0642295677644</v>
       </c>
       <c r="Y7" t="n">
-        <v>1029.71928130825</v>
+        <v>551.0642295677644</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1422.200456328342</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C8" t="n">
-        <v>1053.237939387931</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>1053.237939387931</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>1053.237939387931</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>642.2520345983232</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>227.1795844433197</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4802,7 +4802,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923658</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2182.266054653544</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>1808.800296392464</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="Y8" t="n">
-        <v>1808.800296392464</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4884,49 +4884,49 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>945.3964936596652</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="C10" t="n">
-        <v>776.4603107317583</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="D10" t="n">
-        <v>626.3436713194226</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="E10" t="n">
-        <v>478.4305777370295</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4990,22 +4990,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1575.827088531452</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1575.827088531452</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1575.827088531452</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1575.827088531452</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X10" t="n">
-        <v>1347.837537633435</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="Y10" t="n">
-        <v>1127.044958489905</v>
+        <v>370.0144869816389</v>
       </c>
     </row>
     <row r="11">
@@ -5036,13 +5036,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,16 +5051,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5118,28 +5118,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2495.978408795859</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5267,10 +5267,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5282,13 +5282,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5318,7 +5318,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,28 +5355,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
         <v>484.8112968429803</v>
@@ -5476,10 +5476,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="17">
@@ -5495,43 +5495,43 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5595,22 +5595,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5701,22 +5701,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5823,25 +5823,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797186</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>763.7541388327643</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C22" t="n">
-        <v>594.8179559048574</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="D22" t="n">
-        <v>444.7013164925216</v>
+        <v>766.1780053015053</v>
       </c>
       <c r="E22" t="n">
-        <v>444.7013164925216</v>
+        <v>618.2649117191122</v>
       </c>
       <c r="F22" t="n">
-        <v>444.7013164925216</v>
+        <v>471.3749642212018</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>304.1788649360818</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>945.402603663004</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="23">
@@ -5969,13 +5969,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,7 +5984,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -5993,16 +5993,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6069,22 +6069,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6130,13 +6130,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
@@ -6209,40 +6209,40 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852254</v>
@@ -6303,22 +6303,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797186</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406111</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797186</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
         <v>93.81666304797186</v>
@@ -6427,7 +6427,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>707.672526468518</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6443,13 +6443,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,22 +6458,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6543,25 +6543,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>119.290296770379</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>653.7474797708871</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429803</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>268.7034100454483</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>101.5073107603283</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>835.3959446011269</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="32">
@@ -6686,16 +6686,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.192580311172</v>
@@ -6777,16 +6777,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6901,7 +6901,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>697.5276345711974</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,64 +6923,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,22 +7008,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797186</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>923.4916164683283</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>606.6423399580283</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>459.7523924601179</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7193,31 +7193,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,31 +7245,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797186</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797186</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745237</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468417</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7309,25 +7309,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7482,28 +7482,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797186</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>597.2418223735984</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>282.1326295060853</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>140.4207983482833</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7594,25 +7594,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7843,13 +7843,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>4.308775558570233e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.882938249764265e-13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -9653,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>118.3918499711696</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>138.4949402405078</v>
+        <v>58.20633287440191</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23662,7 +23662,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>12.04875628922491</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>39.70888054695396</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>13.30196929556064</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>144.634190040853</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.4949402405078</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24598,22 +24598,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>44.73700564187209</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>12.04875628922491</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>132.6809716109911</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>72.11969353038609</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,25 +25072,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>2.00531331087754</v>
       </c>
     </row>
     <row r="35">
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>24.80831533903373</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25549,22 +25549,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25783,16 +25783,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>35.12774237125718</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26023,22 +26023,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>736191.0431612027</v>
+        <v>736191.0431612026</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>736191.0431612027</v>
+        <v>736191.0431612026</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>736191.0431612026</v>
+        <v>736191.0431612027</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>736191.0431612027</v>
+        <v>736191.0431612026</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>736191.0431612026</v>
+        <v>736191.0431612027</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>736191.0431612026</v>
+        <v>736191.0431612027</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>736191.0431612026</v>
+        <v>736191.0431612027</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846407</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="C2" t="n">
         <v>697885.5043846408</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846407</v>
       </c>
       <c r="E2" t="n">
+        <v>686074.6097365059</v>
+      </c>
+      <c r="F2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="G2" t="n">
+        <v>686074.6097365054</v>
+      </c>
+      <c r="H2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="I2" t="n">
         <v>686074.6097365055</v>
       </c>
-      <c r="F2" t="n">
-        <v>686074.6097365053</v>
-      </c>
-      <c r="G2" t="n">
-        <v>686074.6097365055</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="K2" t="n">
         <v>686074.6097365059</v>
       </c>
-      <c r="I2" t="n">
-        <v>686074.6097365058</v>
-      </c>
-      <c r="J2" t="n">
-        <v>686074.6097365058</v>
-      </c>
-      <c r="K2" t="n">
-        <v>686074.6097365057</v>
-      </c>
       <c r="L2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365059</v>
       </c>
       <c r="M2" t="n">
         <v>686074.6097365059</v>
       </c>
       <c r="N2" t="n">
-        <v>686074.6097365059</v>
+        <v>686074.609736506</v>
       </c>
       <c r="O2" t="n">
         <v>686074.6097365059</v>
       </c>
       <c r="P2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365061</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,43 +26415,43 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>89744.12305813249</v>
+      </c>
+      <c r="C4" t="n">
         <v>89744.12305813254</v>
-      </c>
-      <c r="C4" t="n">
-        <v>89744.12305813252</v>
       </c>
       <c r="D4" t="n">
         <v>89744.12305813251</v>
       </c>
       <c r="E4" t="n">
+        <v>10557.0882867812</v>
+      </c>
+      <c r="F4" t="n">
         <v>10557.08828678121</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>10557.08828678123</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
+        <v>10557.08828678123</v>
+      </c>
+      <c r="I4" t="n">
+        <v>10557.08828678124</v>
+      </c>
+      <c r="J4" t="n">
+        <v>10557.08828678118</v>
+      </c>
+      <c r="K4" t="n">
         <v>10557.08828678121</v>
-      </c>
-      <c r="H4" t="n">
-        <v>10557.08828678127</v>
-      </c>
-      <c r="I4" t="n">
-        <v>10557.08828678121</v>
-      </c>
-      <c r="J4" t="n">
-        <v>10557.08828678121</v>
-      </c>
-      <c r="K4" t="n">
-        <v>10557.08828678123</v>
       </c>
       <c r="L4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="M4" t="n">
-        <v>10557.08828678127</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="N4" t="n">
-        <v>10557.08828678127</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="O4" t="n">
         <v>10557.08828678121</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-828537.3049624776</v>
+        <v>-828537.3049624775</v>
       </c>
       <c r="C6" t="n">
-        <v>500207.4407651151</v>
+        <v>500207.440765115</v>
       </c>
       <c r="D6" t="n">
-        <v>500207.4407651152</v>
+        <v>500207.440765115</v>
       </c>
       <c r="E6" t="n">
-        <v>248982.529818462</v>
+        <v>248947.7918930265</v>
       </c>
       <c r="F6" t="n">
-        <v>574394.991625817</v>
+        <v>574360.253700382</v>
       </c>
       <c r="G6" t="n">
-        <v>574394.9916258173</v>
+        <v>574360.2537003815</v>
       </c>
       <c r="H6" t="n">
-        <v>574394.9916258176</v>
+        <v>574360.2537003817</v>
       </c>
       <c r="I6" t="n">
-        <v>574394.9916258175</v>
+        <v>574360.2537003816</v>
       </c>
       <c r="J6" t="n">
-        <v>356863.7892285401</v>
+        <v>356829.0513031043</v>
       </c>
       <c r="K6" t="n">
-        <v>574394.9916258174</v>
+        <v>574360.253700382</v>
       </c>
       <c r="L6" t="n">
-        <v>574394.9916258175</v>
+        <v>574360.253700382</v>
       </c>
       <c r="M6" t="n">
-        <v>489339.9636903058</v>
+        <v>489305.2257648699</v>
       </c>
       <c r="N6" t="n">
-        <v>574394.9916258176</v>
+        <v>574360.2537003821</v>
       </c>
       <c r="O6" t="n">
-        <v>574394.9916258176</v>
+        <v>574360.253700382</v>
       </c>
       <c r="P6" t="n">
-        <v>574394.9916258175</v>
+        <v>574360.2537003822</v>
       </c>
     </row>
   </sheetData>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022925</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27382,13 +27382,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>323.3086325560379</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>377.0852116427184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27540,13 +27540,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27555,7 +27555,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>85.4145490500952</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,25 +27585,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>239.1104512034317</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27622,16 +27622,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>365.3142798616627</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>168.0688818921504</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>186.3642471972067</v>
       </c>
       <c r="V7" t="n">
-        <v>94.3554362891108</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>177.1239008292215</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>240.1912326468616</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28011,25 +28011,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>24.7856813609076</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,19 +28062,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>150.2973423161884</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28390,7 +28390,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28813,10 +28813,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29989,7 +29989,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>160.6314956130953</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,31 +32075,31 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32315,7 +32315,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32324,16 +32324,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>383.9182138639289</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32552,19 +32552,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>485.1127032082914</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32789,13 +32789,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>453.4978307576758</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32804,10 +32804,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -33023,25 +33023,25 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>193.1175412796309</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
@@ -33263,13 +33263,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,13 +33278,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>316.3837382263852</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33415,10 +33415,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817575</v>
@@ -33497,19 +33497,19 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33679,7 +33679,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33737,16 +33737,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>519.7862086120942</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33898,7 +33898,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M38" t="n">
         <v>965.6463440175675</v>
@@ -33968,31 +33968,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>345.1232217852619</v>
       </c>
       <c r="Q39" t="n">
-        <v>364.3208035245835</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,28 +34205,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>622.4211036182646</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,19 +34442,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>322.7581251332984</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34463,7 +34463,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>20.64972152707382</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35972,16 +35972,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>249.9438064495987</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,19 +36200,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>342.516458763847</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36373,7 +36373,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924728</v>
@@ -36437,13 +36437,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>314.9434509778017</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36452,10 +36452,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789211</v>
@@ -36613,7 +36613,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
@@ -36911,13 +36911,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,13 +36926,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>182.409330812055</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,10 +37063,10 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37145,19 +37145,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,16 +37385,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402482</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>388.4444965287609</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37546,7 +37546,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M38" t="n">
         <v>735.3001107902948</v>
@@ -37616,31 +37616,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>211.1488143709317</v>
       </c>
       <c r="Q39" t="n">
-        <v>224.339029438562</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789211</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37853,28 +37853,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>483.8667238383904</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38090,19 +38090,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>180.6240912112801</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38111,7 +38111,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
